--- a/similarities/split_global/harmonic_similarity_timestamps_211.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_211.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7', 'Eb:maj6/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:21.900000', '0:00:25.170000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.580000', '0:00:17.960000')]</t>
+          <t>('0:00:02.680000', '0:00:04.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=10.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.68</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000')]</t>
+          <t>('0:00:37.200000', '0:00:39.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=37.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Eb:7', 'Bb', 'Bb:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Ab:7', 'Eb', 'Eb:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:01:03.230000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:36.820000', '0:00:58.520000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=36.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:39.460000', '0:01:49.220000')]</t>
+          <t>('0:01:12.520000', '0:01:30.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:50.130000', '0:02:18.500000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=99.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=110.13']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
+          <t>('0:00:39.020000', '0:00:57.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+          <t>('0:02:00.660000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=226.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=120.66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
+          <t>('0:01:30.780000', '0:01:41.320000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:07.300000', '0:00:10.300000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:19.840000', '0:00:25.560000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:54.380000', '0:00:58.560000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=19.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=54.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:01.300000', '0:01:10.460000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:24.120000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:04.340000', '0:00:18.100000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:06.620000', '0:02:09.240000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=4.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=126.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:01:38.620000', '0:01:52.500000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000')]</t>
+          <t>('0:00:38.860000', '0:00:42.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj6'], ['G:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6'], ['Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.220000', '0:00:09.180000'), ('0:00:02.870000', '0:00:04.800000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.040000', '0:00:09.880000'), ('0:00:00.600000', '0:00:02.510000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=7.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=2.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=8.04', 'https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#:maj/C#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Cb', 'Gb:7', 'Cb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:01:02.700000', '0:01:06.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:08.980000', '0:01:20.440000')]</t>
+          <t>('0:00:46.759000', '0:00:50.551000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=62.7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
